--- a/AfDD_DDAf_2020_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2020_CntryPaysCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2020_CntryPaysCodes" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t>Latin America and Caribbean</t>
   </si>
   <si>
-    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+    <t xml:space="preserve">Amérique latine et Caraïbes </t>
   </si>
   <si>
     <t>130</t>
@@ -198,7 +198,7 @@
     <t>213</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
   </si>
   <si>
     <t>310</t>
@@ -2328,8 +2328,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
